--- a/data/trans_bre/P6905-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6905-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-15,04; 43,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 75,04</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-32,12; 72,95</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-30,99; 30,93</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 814,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,56; 660,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,18%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 35,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 44,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 47,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 30,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,86; 355,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 249,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; 363,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,97; 452,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 25,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 40,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 27,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 24,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,72; 100,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,14; 218,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; 204,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 165,07</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 32,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,55; 18,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 27,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 34,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; 130,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,93; 78,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 110,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 286,91</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,45%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 16,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 26,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 31,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 23,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,48; 50,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; 147,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 130,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,23; 106,93</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 19,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 24,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 22,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 20,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 71,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 105,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,84; 95,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,76; 109,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>23,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>141,54%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>82,09%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 43,18</t>
+          <t>-4,68; 32,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 75,04</t>
+          <t>2,23; 44,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 72,95</t>
+          <t>0,61; 44,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 30,93</t>
+          <t>-3,33; 27,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,04; 345,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 814,59</t>
+          <t>1,38; 228,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 660,17</t>
+          <t>3,18; 311,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,87; 334,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,08</t>
+          <t>25,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>105,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>52,52%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 35,46</t>
+          <t>-6,32; 25,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 44,54</t>
+          <t>8,44; 40,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 47,01</t>
+          <t>-4,9; 27,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 30,9</t>
+          <t>-1,31; 23,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 355,18</t>
+          <t>-19,72; 100,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 249,98</t>
+          <t>26,14; 218,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 363,67</t>
+          <t>-18,79; 204,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 452,06</t>
+          <t>-7,7; 153,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,03</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>105,16%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>50,35%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 25,33</t>
+          <t>-0,85; 32,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 40,63</t>
+          <t>-14,55; 18,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 27,61</t>
+          <t>-2,43; 27,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 24,07</t>
+          <t>-19,52; 29,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 100,55</t>
+          <t>-4,97; 130,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,14; 218,51</t>
+          <t>-40,93; 78,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 204,44</t>
+          <t>-6,89; 110,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 165,07</t>
+          <t>-56,93; 210,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,03</t>
+          <t>14,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 32,33</t>
+          <t>-9,58; 16,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 18,47</t>
+          <t>-3,39; 26,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 27,14</t>
+          <t>-0,57; 31,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 34,54</t>
+          <t>-8,14; 20,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 130,84</t>
+          <t>-21,48; 50,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 78,88</t>
+          <t>-13,46; 147,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 110,46</t>
+          <t>-2,72; 130,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 286,91</t>
+          <t>-22,91; 88,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,16</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>41,41%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 16,74</t>
+          <t>2,9; 19,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 26,6</t>
+          <t>6,83; 24,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 31,01</t>
+          <t>5,42; 22,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 23,65</t>
+          <t>-0,8; 17,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 50,17</t>
+          <t>8,99; 71,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 147,02</t>
+          <t>22,47; 105,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 130,35</t>
+          <t>16,84; 95,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 106,93</t>
+          <t>-2,71; 89,41</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,25</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,35</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>36,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>57,72%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>52,47%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>55,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 19,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 24,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 22,8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 20,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,99; 71,01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>22,47; 105,1</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 95,77</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17,76; 109,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6905-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 32,15</t>
+          <t>-4,84; 30,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 44,37</t>
+          <t>3,36; 43,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 44,95</t>
+          <t>-0,36; 40,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 27,29</t>
+          <t>-2,84; 27,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 345,9</t>
+          <t>-30,61; 324,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 228,64</t>
+          <t>5,77; 217,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 311,62</t>
+          <t>-6,33; 234,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 334,32</t>
+          <t>-24,14; 365,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 25,33</t>
+          <t>-3,99; 25,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 40,63</t>
+          <t>9,97; 40,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 27,61</t>
+          <t>-3,0; 26,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 23,63</t>
+          <t>-1,3; 23,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 100,55</t>
+          <t>-11,79; 106,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,14; 218,51</t>
+          <t>32,69; 241,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 204,44</t>
+          <t>-13,33; 179,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 153,27</t>
+          <t>-6,46; 146,99</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 32,33</t>
+          <t>-1,56; 33,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 18,47</t>
+          <t>-15,47; 18,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 27,14</t>
+          <t>-2,5; 26,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 29,69</t>
+          <t>-15,28; 29,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 130,84</t>
+          <t>-6,56; 135,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 78,88</t>
+          <t>-38,35; 83,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 110,46</t>
+          <t>-10,19; 105,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 210,11</t>
+          <t>-53,14; 212,2</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 16,74</t>
+          <t>-8,86; 18,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 26,6</t>
+          <t>-3,13; 28,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 31,01</t>
+          <t>-0,76; 31,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 20,41</t>
+          <t>-9,04; 19,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 50,17</t>
+          <t>-20,79; 56,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 147,02</t>
+          <t>-11,24; 175,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 130,35</t>
+          <t>-2,15; 134,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 88,76</t>
+          <t>-24,85; 84,75</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,26</t>
+          <t>3,36; 18,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 24,01</t>
+          <t>6,34; 23,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 22,8</t>
+          <t>5,94; 22,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 17,3</t>
+          <t>-0,19; 17,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 71,01</t>
+          <t>10,35; 70,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,47; 105,1</t>
+          <t>21,45; 104,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 95,77</t>
+          <t>19,03; 96,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 89,41</t>
+          <t>-0,48; 91,13</t>
         </is>
       </c>
     </row>
